--- a/items.xlsx
+++ b/items.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\ddgpt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB02FDAD-0008-4E28-AA19-72C3FD00EC96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92E1A709-BB85-414B-AE85-7D86FCB11C90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1317,21 +1317,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F219"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54"/>
+    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
+      <selection activeCell="F153" sqref="F153"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.1796875" customWidth="1"/>
-    <col min="2" max="2" width="38.08984375" customWidth="1"/>
+    <col min="1" max="1" width="37.140625" customWidth="1"/>
+    <col min="2" max="2" width="38.140625" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="11.54296875" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" customWidth="1"/>
     <col min="5" max="5" width="7" customWidth="1"/>
-    <col min="6" max="6" width="29.453125" customWidth="1"/>
+    <col min="6" max="6" width="29.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1351,7 +1351,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -1371,7 +1371,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -1391,7 +1391,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -1411,7 +1411,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>25</v>
       </c>
@@ -1431,7 +1431,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>26</v>
       </c>
@@ -1451,7 +1451,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>27</v>
       </c>
@@ -1471,7 +1471,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>28</v>
       </c>
@@ -1491,7 +1491,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>29</v>
       </c>
@@ -1511,7 +1511,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>30</v>
       </c>
@@ -1531,7 +1531,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>31</v>
       </c>
@@ -1551,7 +1551,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>32</v>
       </c>
@@ -1571,7 +1571,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>33</v>
       </c>
@@ -1591,7 +1591,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>34</v>
       </c>
@@ -1611,7 +1611,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>35</v>
       </c>
@@ -1631,7 +1631,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>36</v>
       </c>
@@ -1651,7 +1651,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>37</v>
       </c>
@@ -1671,7 +1671,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>39</v>
       </c>
@@ -1691,7 +1691,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>41</v>
       </c>
@@ -1711,7 +1711,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>43</v>
       </c>
@@ -1731,7 +1731,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>45</v>
       </c>
@@ -1751,7 +1751,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>47</v>
       </c>
@@ -1771,7 +1771,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>49</v>
       </c>
@@ -1791,7 +1791,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>50</v>
       </c>
@@ -1811,7 +1811,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>51</v>
       </c>
@@ -1831,7 +1831,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>52</v>
       </c>
@@ -1851,7 +1851,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>53</v>
       </c>
@@ -1871,7 +1871,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>54</v>
       </c>
@@ -1891,7 +1891,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>122</v>
       </c>
@@ -1911,7 +1911,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>57</v>
       </c>
@@ -1931,7 +1931,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>59</v>
       </c>
@@ -1951,7 +1951,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>61</v>
       </c>
@@ -1971,7 +1971,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>63</v>
       </c>
@@ -1991,7 +1991,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>65</v>
       </c>
@@ -2011,7 +2011,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>66</v>
       </c>
@@ -2031,7 +2031,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>67</v>
       </c>
@@ -2051,7 +2051,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>68</v>
       </c>
@@ -2071,7 +2071,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>69</v>
       </c>
@@ -2091,7 +2091,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>70</v>
       </c>
@@ -2111,7 +2111,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>73</v>
       </c>
@@ -2131,7 +2131,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>75</v>
       </c>
@@ -2151,7 +2151,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>77</v>
       </c>
@@ -2171,7 +2171,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>79</v>
       </c>
@@ -2191,7 +2191,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>81</v>
       </c>
@@ -2211,7 +2211,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>82</v>
       </c>
@@ -2231,7 +2231,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>83</v>
       </c>
@@ -2251,7 +2251,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>84</v>
       </c>
@@ -2271,7 +2271,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>85</v>
       </c>
@@ -2291,7 +2291,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>86</v>
       </c>
@@ -2311,7 +2311,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>87</v>
       </c>
@@ -2331,7 +2331,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>88</v>
       </c>
@@ -2351,7 +2351,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>89</v>
       </c>
@@ -2371,7 +2371,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>90</v>
       </c>
@@ -2391,7 +2391,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>91</v>
       </c>
@@ -2411,7 +2411,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>94</v>
       </c>
@@ -2431,7 +2431,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>96</v>
       </c>
@@ -2451,7 +2451,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>98</v>
       </c>
@@ -2471,7 +2471,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>100</v>
       </c>
@@ -2491,7 +2491,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>102</v>
       </c>
@@ -2511,7 +2511,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>104</v>
       </c>
@@ -2531,7 +2531,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>105</v>
       </c>
@@ -2551,7 +2551,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>106</v>
       </c>
@@ -2571,7 +2571,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>107</v>
       </c>
@@ -2591,7 +2591,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>108</v>
       </c>
@@ -2611,7 +2611,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>110</v>
       </c>
@@ -2631,7 +2631,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>111</v>
       </c>
@@ -2651,7 +2651,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>112</v>
       </c>
@@ -2671,7 +2671,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>113</v>
       </c>
@@ -2691,7 +2691,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>123</v>
       </c>
@@ -2711,7 +2711,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>126</v>
       </c>
@@ -2731,7 +2731,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>128</v>
       </c>
@@ -2751,7 +2751,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>130</v>
       </c>
@@ -2771,7 +2771,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>132</v>
       </c>
@@ -2791,7 +2791,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>134</v>
       </c>
@@ -2811,7 +2811,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>136</v>
       </c>
@@ -2831,7 +2831,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>137</v>
       </c>
@@ -2851,7 +2851,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>138</v>
       </c>
@@ -2871,7 +2871,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>139</v>
       </c>
@@ -2891,7 +2891,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>140</v>
       </c>
@@ -2911,7 +2911,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>141</v>
       </c>
@@ -2931,7 +2931,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>142</v>
       </c>
@@ -2951,7 +2951,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>143</v>
       </c>
@@ -2971,7 +2971,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>144</v>
       </c>
@@ -2991,7 +2991,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>241</v>
       </c>
@@ -3011,7 +3011,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>243</v>
       </c>
@@ -3031,7 +3031,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>245</v>
       </c>
@@ -3051,7 +3051,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>247</v>
       </c>
@@ -3071,7 +3071,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>249</v>
       </c>
@@ -3091,7 +3091,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>145</v>
       </c>
@@ -3111,7 +3111,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>147</v>
       </c>
@@ -3131,7 +3131,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>149</v>
       </c>
@@ -3151,7 +3151,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>151</v>
       </c>
@@ -3171,7 +3171,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>153</v>
       </c>
@@ -3191,7 +3191,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>155</v>
       </c>
@@ -3211,7 +3211,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>157</v>
       </c>
@@ -3231,7 +3231,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>159</v>
       </c>
@@ -3251,7 +3251,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>161</v>
       </c>
@@ -3271,7 +3271,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>163</v>
       </c>
@@ -3291,7 +3291,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>165</v>
       </c>
@@ -3311,7 +3311,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>169</v>
       </c>
@@ -3331,7 +3331,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>171</v>
       </c>
@@ -3351,7 +3351,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>173</v>
       </c>
@@ -3371,7 +3371,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>175</v>
       </c>
@@ -3391,7 +3391,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>177</v>
       </c>
@@ -3411,7 +3411,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>180</v>
       </c>
@@ -3431,7 +3431,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>182</v>
       </c>
@@ -3451,7 +3451,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>184</v>
       </c>
@@ -3471,7 +3471,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>186</v>
       </c>
@@ -3491,7 +3491,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>188</v>
       </c>
@@ -3511,7 +3511,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>192</v>
       </c>
@@ -3531,7 +3531,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>194</v>
       </c>
@@ -3551,7 +3551,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>196</v>
       </c>
@@ -3571,7 +3571,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>198</v>
       </c>
@@ -3591,7 +3591,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>200</v>
       </c>
@@ -3611,7 +3611,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>202</v>
       </c>
@@ -3631,7 +3631,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>203</v>
       </c>
@@ -3651,7 +3651,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>204</v>
       </c>
@@ -3671,7 +3671,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>205</v>
       </c>
@@ -3691,7 +3691,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>206</v>
       </c>
@@ -3711,7 +3711,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>207</v>
       </c>
@@ -3731,7 +3731,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>208</v>
       </c>
@@ -3751,7 +3751,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>209</v>
       </c>
@@ -3771,7 +3771,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>210</v>
       </c>
@@ -3791,7 +3791,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>211</v>
       </c>
@@ -3811,7 +3811,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>212</v>
       </c>
@@ -3831,7 +3831,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>213</v>
       </c>
@@ -3851,7 +3851,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>214</v>
       </c>
@@ -3871,7 +3871,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
         <v>215</v>
       </c>
@@ -3891,7 +3891,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
         <v>216</v>
       </c>
@@ -3911,7 +3911,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
         <v>217</v>
       </c>
@@ -3931,7 +3931,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
         <v>218</v>
       </c>
@@ -3951,7 +3951,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
         <v>219</v>
       </c>
@@ -3971,7 +3971,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
         <v>220</v>
       </c>
@@ -3991,7 +3991,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
         <v>221</v>
       </c>
@@ -4011,7 +4011,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
         <v>222</v>
       </c>
@@ -4031,7 +4031,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
         <v>223</v>
       </c>
@@ -4051,7 +4051,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
         <v>224</v>
       </c>
@@ -4071,7 +4071,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
         <v>225</v>
       </c>
@@ -4091,7 +4091,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
         <v>226</v>
       </c>
@@ -4111,7 +4111,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
         <v>227</v>
       </c>
@@ -4131,7 +4131,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
         <v>228</v>
       </c>
@@ -4151,7 +4151,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
         <v>229</v>
       </c>
@@ -4171,7 +4171,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
         <v>230</v>
       </c>
@@ -4191,7 +4191,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
         <v>231</v>
       </c>
@@ -4211,7 +4211,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
         <v>232</v>
       </c>
@@ -4231,7 +4231,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
         <v>233</v>
       </c>
@@ -4251,7 +4251,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
         <v>234</v>
       </c>
@@ -4271,7 +4271,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
         <v>235</v>
       </c>
@@ -4291,7 +4291,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
         <v>236</v>
       </c>
@@ -4311,7 +4311,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
         <v>237</v>
       </c>
@@ -4331,7 +4331,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
         <v>238</v>
       </c>
@@ -4351,7 +4351,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
         <v>239</v>
       </c>
@@ -4371,7 +4371,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
         <v>240</v>
       </c>
@@ -4391,7 +4391,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
         <v>202</v>
       </c>
@@ -4411,7 +4411,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
         <v>204</v>
       </c>
@@ -4431,7 +4431,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
         <v>203</v>
       </c>
@@ -4451,7 +4451,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
         <v>253</v>
       </c>
@@ -4471,7 +4471,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
         <v>205</v>
       </c>
@@ -4491,7 +4491,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
         <v>254</v>
       </c>
@@ -4511,7 +4511,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
         <v>255</v>
       </c>
@@ -4531,7 +4531,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
         <v>256</v>
       </c>
@@ -4551,7 +4551,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
         <v>257</v>
       </c>
@@ -4571,7 +4571,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
         <v>258</v>
       </c>
@@ -4591,7 +4591,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
         <v>259</v>
       </c>
@@ -4611,7 +4611,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
         <v>260</v>
       </c>
@@ -4631,7 +4631,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
         <v>261</v>
       </c>
@@ -4651,7 +4651,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
         <v>262</v>
       </c>
@@ -4671,7 +4671,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
         <v>215</v>
       </c>
@@ -4691,7 +4691,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
         <v>260</v>
       </c>
@@ -4711,7 +4711,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
         <v>262</v>
       </c>
@@ -4731,7 +4731,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
         <v>261</v>
       </c>
@@ -4751,7 +4751,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
         <v>263</v>
       </c>
@@ -4771,7 +4771,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
         <v>215</v>
       </c>
@@ -4791,7 +4791,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
         <v>264</v>
       </c>
@@ -4811,7 +4811,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
         <v>265</v>
       </c>
@@ -4831,7 +4831,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
         <v>266</v>
       </c>
@@ -4851,7 +4851,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
         <v>267</v>
       </c>
@@ -4871,7 +4871,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
         <v>268</v>
       </c>
@@ -4891,7 +4891,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
         <v>151</v>
       </c>
@@ -4911,7 +4911,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
         <v>157</v>
       </c>
@@ -4931,7 +4931,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
         <v>269</v>
       </c>
@@ -4951,7 +4951,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
         <v>270</v>
       </c>
@@ -4971,7 +4971,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
         <v>271</v>
       </c>
@@ -4991,7 +4991,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
         <v>272</v>
       </c>
@@ -5011,7 +5011,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
         <v>273</v>
       </c>
@@ -5031,7 +5031,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
         <v>274</v>
       </c>
@@ -5051,7 +5051,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
         <v>275</v>
       </c>
@@ -5071,7 +5071,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
         <v>276</v>
       </c>
@@ -5091,7 +5091,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
         <v>277</v>
       </c>
@@ -5111,7 +5111,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
         <v>278</v>
       </c>
@@ -5131,7 +5131,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
         <v>279</v>
       </c>
@@ -5151,7 +5151,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
         <v>280</v>
       </c>
@@ -5171,7 +5171,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
         <v>281</v>
       </c>
@@ -5191,7 +5191,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
         <v>198</v>
       </c>
@@ -5211,7 +5211,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
         <v>282</v>
       </c>
@@ -5231,7 +5231,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
         <v>278</v>
       </c>
@@ -5251,7 +5251,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
         <v>280</v>
       </c>
@@ -5271,7 +5271,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
         <v>279</v>
       </c>
@@ -5291,7 +5291,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
         <v>198</v>
       </c>
@@ -5311,7 +5311,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
         <v>283</v>
       </c>
@@ -5331,7 +5331,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
         <v>284</v>
       </c>
@@ -5351,7 +5351,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
         <v>217</v>
       </c>
@@ -5371,7 +5371,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
         <v>285</v>
       </c>
@@ -5391,7 +5391,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
         <v>219</v>
       </c>
@@ -5411,7 +5411,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
         <v>284</v>
       </c>
@@ -5431,7 +5431,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
         <v>286</v>
       </c>
@@ -5451,7 +5451,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
         <v>287</v>
       </c>
@@ -5471,7 +5471,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
         <v>288</v>
       </c>
@@ -5491,7 +5491,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
         <v>289</v>
       </c>
@@ -5511,7 +5511,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
         <v>290</v>
       </c>
@@ -5531,7 +5531,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
         <v>291</v>
       </c>
@@ -5551,7 +5551,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
         <v>292</v>
       </c>
@@ -5571,7 +5571,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
         <v>293</v>
       </c>
@@ -5591,7 +5591,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
         <v>294</v>
       </c>
@@ -5611,7 +5611,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
         <v>296</v>
       </c>
@@ -5631,7 +5631,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
         <v>297</v>
       </c>
@@ -5651,7 +5651,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
         <v>298</v>
       </c>
@@ -5671,7 +5671,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
         <v>299</v>
       </c>
@@ -5691,7 +5691,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
         <v>300</v>
       </c>
